--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.item.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13069" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13073" uniqueCount="829">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -608,15 +608,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the revenue or cost centers supplying the service and/or products.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-revenue-center-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:category</t>
   </si>
   <si>
@@ -651,12 +642,6 @@
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
-    <t>Benefit categories such as: oral, medical, vision, oral-basic etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-benefitcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:productOrService</t>
   </si>
   <si>
@@ -689,12 +674,6 @@
   </si>
   <si>
     <t>Extension.extension:productOrService.value[x]</t>
-  </si>
-  <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-uscls-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:productOrServiceEnd</t>
@@ -760,7 +739,7 @@
     <t>Extension.extension:request.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|0.0.1-snapshot-3|NutritionOrder|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|0.0.1-snapshot-3|SupplyRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|0.0.1-snapshot-3|VisionPrescription|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|NutritionOrder|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|SupplyRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|VisionPrescription)
 </t>
   </si>
   <si>
@@ -798,12 +777,6 @@
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-modifiers-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:programCode</t>
   </si>
   <si>
@@ -836,12 +809,6 @@
   </si>
   <si>
     <t>Extension.extension:programCode.value[x]</t>
-  </si>
-  <si>
-    <t>Program specific reason codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-program-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:serviced</t>
@@ -915,13 +882,7 @@
   </si>
   <si>
     <t>CodeableConcept
-AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)</t>
-  </si>
-  <si>
-    <t>Place where the service is rendered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-place-for-R4</t>
+AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)</t>
   </si>
   <si>
     <t>Extension.extension:patientPaid</t>
@@ -990,7 +951,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1159,7 +1120,7 @@
     <t>Extension.extension:udi.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -1279,8 +1240,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:concept.id</t>
@@ -1298,7 +1258,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-tooth-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-tooth-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference</t>
@@ -1313,8 +1273,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference.id</t>
@@ -1329,7 +1288,7 @@
     <t>Extension.extension:bodySite.extension:site.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -1383,9 +1342,6 @@
     <t>Extension.extension:bodySite.extension:subSite.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-surface-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:bodySite.url</t>
   </si>
   <si>
@@ -1426,7 +1382,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -1679,12 +1635,6 @@
     <t>Extension.extension:adjudication.extension:category.value[x]</t>
   </si>
   <si>
-    <t>The adjudication codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adjudication-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:adjudication.extension:reason</t>
   </si>
   <si>
@@ -1714,12 +1664,6 @@
   </si>
   <si>
     <t>Extension.extension:adjudication.extension:reason.value[x]</t>
-  </si>
-  <si>
-    <t>Adjudication reason codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adjudication-reason-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:adjudication.extension:amount</t>
@@ -3019,8 +2963,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7074,13 +7018,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -7118,13 +7062,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -7149,16 +7093,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -7227,7 +7171,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -7330,7 +7274,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -7435,7 +7379,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -7478,7 +7422,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -7540,7 +7484,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -7569,13 +7513,13 @@
         <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7601,13 +7545,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7645,13 +7589,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -7676,16 +7620,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7754,7 +7698,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -7857,7 +7801,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -7962,7 +7906,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -8005,7 +7949,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -8067,7 +8011,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -8096,13 +8040,13 @@
         <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8128,13 +8072,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -8172,13 +8116,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -8203,14 +8147,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -8279,7 +8223,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -8382,7 +8326,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -8487,7 +8431,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -8530,7 +8474,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -8592,7 +8536,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -8621,10 +8565,10 @@
         <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8651,11 +8595,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8693,13 +8639,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8724,14 +8670,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8800,7 +8746,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -8903,7 +8849,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -9008,7 +8954,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -9051,7 +8997,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -9113,7 +9059,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -9139,13 +9085,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9216,13 +9162,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -9247,16 +9193,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9325,7 +9271,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -9428,7 +9374,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -9533,7 +9479,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -9576,7 +9522,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -9638,7 +9584,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -9667,13 +9613,13 @@
         <v>187</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9699,13 +9645,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9743,13 +9689,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9774,16 +9720,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9852,7 +9798,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -9955,7 +9901,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -10060,7 +10006,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -10103,7 +10049,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -10165,7 +10111,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -10194,13 +10140,13 @@
         <v>187</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10226,13 +10172,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -10270,13 +10216,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -10301,14 +10247,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10377,7 +10323,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -10480,7 +10426,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -10585,7 +10531,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -10628,7 +10574,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -10690,7 +10636,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -10716,13 +10662,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10793,13 +10739,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10824,14 +10770,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10900,7 +10846,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -11003,7 +10949,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -11108,7 +11054,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -11151,7 +11097,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -11213,7 +11159,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -11239,13 +11185,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11272,13 +11218,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -11316,13 +11262,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -11347,14 +11293,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11423,7 +11369,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -11526,7 +11472,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -11631,7 +11577,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -11674,7 +11620,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11736,7 +11682,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -11762,13 +11708,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11839,13 +11785,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11870,14 +11816,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11946,7 +11892,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -12049,7 +11995,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -12154,7 +12100,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -12197,7 +12143,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -12259,7 +12205,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -12285,13 +12231,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12362,13 +12308,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -12393,14 +12339,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12469,7 +12415,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -12572,7 +12518,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -12677,7 +12623,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -12720,7 +12666,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -12782,7 +12728,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>122</v>
@@ -12808,13 +12754,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12885,13 +12831,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12916,16 +12862,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12994,7 +12940,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -13097,7 +13043,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -13202,7 +13148,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -13245,7 +13191,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -13307,7 +13253,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>122</v>
@@ -13333,16 +13279,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13412,13 +13358,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -13443,14 +13389,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13519,7 +13465,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -13622,7 +13568,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -13727,7 +13673,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -13770,7 +13716,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -13832,7 +13778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>122</v>
@@ -13858,13 +13804,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13935,13 +13881,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13966,16 +13912,16 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -14044,7 +13990,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -14147,7 +14093,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -14252,7 +14198,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -14295,7 +14241,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -14357,7 +14303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>122</v>
@@ -14383,16 +14329,16 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14462,13 +14408,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -14493,14 +14439,14 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -14569,7 +14515,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>105</v>
@@ -14672,7 +14618,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>107</v>
@@ -14777,7 +14723,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>113</v>
@@ -14820,7 +14766,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -14882,7 +14828,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>122</v>
@@ -14908,13 +14854,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14985,13 +14931,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -15016,14 +14962,14 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -15092,7 +15038,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>105</v>
@@ -15195,7 +15141,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>107</v>
@@ -15298,13 +15244,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -15329,16 +15275,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15407,10 +15353,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15510,10 +15456,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15613,13 +15559,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -15644,10 +15590,10 @@
         <v>93</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15718,10 +15664,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15821,10 +15767,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15926,10 +15872,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15969,7 +15915,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -16031,10 +15977,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16060,13 +16006,13 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16074,7 +16020,7 @@
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>77</v>
@@ -16136,13 +16082,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -16167,14 +16113,14 @@
         <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -16243,10 +16189,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16346,10 +16292,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16451,10 +16397,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16494,7 +16440,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -16556,10 +16502,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16585,10 +16531,10 @@
         <v>187</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16615,11 +16561,11 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -16657,13 +16603,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -16688,14 +16634,14 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -16764,10 +16710,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16867,10 +16813,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16972,10 +16918,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17015,7 +16961,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -17077,10 +17023,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17103,13 +17049,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17180,10 +17126,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17223,7 +17169,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -17285,10 +17231,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17311,13 +17257,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17388,13 +17334,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -17419,14 +17365,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -17495,10 +17441,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17598,10 +17544,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17703,10 +17649,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17746,7 +17692,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -17808,10 +17754,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17837,10 +17783,10 @@
         <v>187</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -17867,11 +17813,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y142" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z142" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -17909,7 +17857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>113</v>
@@ -17952,7 +17900,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -18014,7 +17962,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>122</v>
@@ -18040,13 +17988,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -18117,13 +18065,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18148,14 +18096,14 @@
         <v>93</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -18224,7 +18172,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>105</v>
@@ -18327,7 +18275,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>107</v>
@@ -18432,7 +18380,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>113</v>
@@ -18475,7 +18423,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -18537,7 +18485,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>122</v>
@@ -18563,13 +18511,13 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -18640,13 +18588,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>77</v>
@@ -18671,14 +18619,14 @@
         <v>93</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -18747,7 +18695,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>105</v>
@@ -18850,7 +18798,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>107</v>
@@ -18955,7 +18903,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>113</v>
@@ -18998,7 +18946,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -19060,7 +19008,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>122</v>
@@ -19089,10 +19037,10 @@
         <v>123</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -19163,13 +19111,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>77</v>
@@ -19194,14 +19142,14 @@
         <v>93</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>77</v>
@@ -19270,7 +19218,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>105</v>
@@ -19373,7 +19321,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>107</v>
@@ -19476,13 +19424,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -19507,16 +19455,16 @@
         <v>93</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -19585,10 +19533,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19688,10 +19636,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19793,10 +19741,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19836,7 +19784,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19898,10 +19846,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19927,13 +19875,13 @@
         <v>187</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -20003,13 +19951,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -20034,14 +19982,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -20110,10 +20058,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20213,10 +20161,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20318,10 +20266,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20361,7 +20309,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -20423,10 +20371,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -20452,10 +20400,10 @@
         <v>187</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -20526,13 +20474,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -20557,16 +20505,16 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -20635,10 +20583,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20738,10 +20686,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20843,10 +20791,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20886,7 +20834,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20948,10 +20896,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20977,13 +20925,13 @@
         <v>87</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -21053,13 +21001,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -21084,14 +21032,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -21160,10 +21108,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -21263,10 +21211,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21368,10 +21316,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21411,7 +21359,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -21473,10 +21421,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21499,13 +21447,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -21576,7 +21524,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>113</v>
@@ -21619,7 +21567,7 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="S178" t="s" s="2">
         <v>77</v>
@@ -21681,7 +21629,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>122</v>
@@ -21707,13 +21655,13 @@
         <v>77</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -21784,13 +21732,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>77</v>
@@ -21815,14 +21763,14 @@
         <v>93</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>77</v>
@@ -21891,7 +21839,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>105</v>
@@ -21994,7 +21942,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>107</v>
@@ -22097,13 +22045,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -22128,16 +22076,16 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -22206,10 +22154,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22309,10 +22257,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22414,10 +22362,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22457,7 +22405,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -22519,10 +22467,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22548,13 +22496,13 @@
         <v>187</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
@@ -22580,13 +22528,13 @@
         <v>77</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>77</v>
@@ -22624,13 +22572,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -22655,16 +22603,16 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22733,10 +22681,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22836,10 +22784,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22941,10 +22889,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22984,7 +22932,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -23046,10 +22994,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23075,13 +23023,13 @@
         <v>187</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -23107,13 +23055,13 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>77</v>
@@ -23151,13 +23099,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -23182,16 +23130,16 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -23260,10 +23208,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23363,10 +23311,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23468,10 +23416,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23511,7 +23459,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -23573,10 +23521,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23599,16 +23547,16 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -23678,13 +23626,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -23709,16 +23657,16 @@
         <v>93</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23787,10 +23735,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23890,10 +23838,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23995,10 +23943,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24038,7 +23986,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -24100,10 +24048,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24126,16 +24074,16 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -24205,7 +24153,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>113</v>
@@ -24248,7 +24196,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>77</v>
@@ -24310,7 +24258,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>122</v>
@@ -24336,13 +24284,13 @@
         <v>77</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24413,13 +24361,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>77</v>
@@ -24444,14 +24392,14 @@
         <v>93</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>77</v>
@@ -24520,7 +24468,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>105</v>
@@ -24623,7 +24571,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>107</v>
@@ -24726,7 +24674,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
@@ -24760,11 +24708,11 @@
         <v>81</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24833,10 +24781,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24936,10 +24884,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -25041,10 +24989,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -25084,7 +25032,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -25146,10 +25094,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -25178,7 +25126,7 @@
         <v>81</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -25249,7 +25197,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
@@ -25287,7 +25235,7 @@
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -25356,10 +25304,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25459,10 +25407,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25564,10 +25512,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25607,7 +25555,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -25669,10 +25617,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25772,7 +25720,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>107</v>
@@ -25810,7 +25758,7 @@
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25879,10 +25827,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25982,10 +25930,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -26087,10 +26035,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -26130,7 +26078,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -26192,10 +26140,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -26251,13 +26199,13 @@
         <v>77</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>77</v>
@@ -26295,13 +26243,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>77</v>
@@ -26326,16 +26274,16 @@
         <v>93</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -26404,10 +26352,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26507,10 +26455,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26612,10 +26560,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26655,7 +26603,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>77</v>
@@ -26717,10 +26665,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26746,13 +26694,13 @@
         <v>187</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -26778,13 +26726,13 @@
         <v>77</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z227" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA227" t="s" s="2">
         <v>77</v>
@@ -26822,13 +26770,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D228" t="s" s="2">
         <v>77</v>
@@ -26853,16 +26801,16 @@
         <v>93</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>77</v>
@@ -26931,10 +26879,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -27034,10 +26982,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -27139,10 +27087,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -27182,7 +27130,7 @@
       </c>
       <c r="Q231" s="2"/>
       <c r="R231" t="s" s="2">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="S231" t="s" s="2">
         <v>77</v>
@@ -27244,10 +27192,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27273,13 +27221,13 @@
         <v>187</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -27305,13 +27253,13 @@
         <v>77</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z232" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA232" t="s" s="2">
         <v>77</v>
@@ -27349,13 +27297,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>77</v>
@@ -27380,14 +27328,14 @@
         <v>93</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>77</v>
@@ -27456,10 +27404,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -27559,10 +27507,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27664,10 +27612,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27707,7 +27655,7 @@
       </c>
       <c r="Q236" s="2"/>
       <c r="R236" t="s" s="2">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="S236" t="s" s="2">
         <v>77</v>
@@ -27769,10 +27717,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27798,10 +27746,10 @@
         <v>187</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -27828,11 +27776,13 @@
         <v>77</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y237" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z237" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>77</v>
@@ -27870,13 +27820,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>77</v>
@@ -27901,16 +27851,16 @@
         <v>93</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>77</v>
@@ -27979,10 +27929,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -28082,10 +28032,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -28187,10 +28137,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -28230,7 +28180,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -28292,10 +28242,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28321,13 +28271,13 @@
         <v>187</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -28353,13 +28303,13 @@
         <v>77</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>77</v>
@@ -28397,13 +28347,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>77</v>
@@ -28428,16 +28378,16 @@
         <v>93</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>77</v>
@@ -28506,10 +28456,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28609,10 +28559,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28714,10 +28664,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28757,7 +28707,7 @@
       </c>
       <c r="Q246" s="2"/>
       <c r="R246" t="s" s="2">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="S246" t="s" s="2">
         <v>77</v>
@@ -28819,10 +28769,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28848,13 +28798,13 @@
         <v>187</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -28880,13 +28830,13 @@
         <v>77</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>77</v>
@@ -28924,13 +28874,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>77</v>
@@ -28955,14 +28905,14 @@
         <v>93</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>77</v>
@@ -29031,10 +28981,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -29134,10 +29084,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -29239,10 +29189,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -29282,7 +29232,7 @@
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>77</v>
@@ -29344,10 +29294,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29370,13 +29320,13 @@
         <v>77</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -29447,13 +29397,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>77</v>
@@ -29478,14 +29428,14 @@
         <v>93</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" t="s" s="2">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="P253" t="s" s="2">
         <v>77</v>
@@ -29554,10 +29504,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -29657,10 +29607,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29762,10 +29712,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -29805,7 +29755,7 @@
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" t="s" s="2">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="S256" t="s" s="2">
         <v>77</v>
@@ -29867,10 +29817,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29893,13 +29843,13 @@
         <v>77</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -29970,13 +29920,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D258" t="s" s="2">
         <v>77</v>
@@ -30001,14 +29951,14 @@
         <v>93</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="P258" t="s" s="2">
         <v>77</v>
@@ -30077,10 +30027,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -30180,10 +30130,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -30285,10 +30235,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -30328,7 +30278,7 @@
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" t="s" s="2">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="S261" t="s" s="2">
         <v>77</v>
@@ -30390,10 +30340,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -30416,13 +30366,13 @@
         <v>77</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -30493,13 +30443,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D263" t="s" s="2">
         <v>77</v>
@@ -30524,16 +30474,16 @@
         <v>93</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="P263" t="s" s="2">
         <v>77</v>
@@ -30602,10 +30552,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -30705,10 +30655,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30810,10 +30760,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30853,7 +30803,7 @@
       </c>
       <c r="Q266" s="2"/>
       <c r="R266" t="s" s="2">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="S266" t="s" s="2">
         <v>77</v>
@@ -30915,10 +30865,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30941,16 +30891,16 @@
         <v>77</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
@@ -31020,13 +30970,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>77</v>
@@ -31051,14 +31001,14 @@
         <v>93</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="P268" t="s" s="2">
         <v>77</v>
@@ -31127,10 +31077,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -31230,10 +31180,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -31335,10 +31285,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -31378,7 +31328,7 @@
       </c>
       <c r="Q271" s="2"/>
       <c r="R271" t="s" s="2">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="S271" t="s" s="2">
         <v>77</v>
@@ -31440,10 +31390,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -31466,13 +31416,13 @@
         <v>77</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -31543,13 +31493,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -31574,16 +31524,16 @@
         <v>93</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O273" t="s" s="2">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>77</v>
@@ -31652,10 +31602,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31755,10 +31705,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31860,10 +31810,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31903,7 +31853,7 @@
       </c>
       <c r="Q276" s="2"/>
       <c r="R276" t="s" s="2">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="S276" t="s" s="2">
         <v>77</v>
@@ -31965,10 +31915,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31991,16 +31941,16 @@
         <v>77</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" t="s" s="2">
@@ -32070,13 +32020,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D278" t="s" s="2">
         <v>77</v>
@@ -32101,14 +32051,14 @@
         <v>93</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" t="s" s="2">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="P278" t="s" s="2">
         <v>77</v>
@@ -32177,10 +32127,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -32280,10 +32230,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -32385,10 +32335,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -32428,7 +32378,7 @@
       </c>
       <c r="Q281" s="2"/>
       <c r="R281" t="s" s="2">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="S281" t="s" s="2">
         <v>77</v>
@@ -32490,10 +32440,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -32516,13 +32466,13 @@
         <v>77</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -32593,13 +32543,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D283" t="s" s="2">
         <v>77</v>
@@ -32624,14 +32574,14 @@
         <v>93</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="P283" t="s" s="2">
         <v>77</v>
@@ -32700,10 +32650,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -32803,10 +32753,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -32908,10 +32858,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -32951,7 +32901,7 @@
       </c>
       <c r="Q286" s="2"/>
       <c r="R286" t="s" s="2">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="S286" t="s" s="2">
         <v>77</v>
@@ -33013,10 +32963,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -33042,10 +32992,10 @@
         <v>123</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -33116,13 +33066,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D288" t="s" s="2">
         <v>77</v>
@@ -33147,14 +33097,14 @@
         <v>93</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>77</v>
@@ -33223,10 +33173,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -33326,10 +33276,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -33431,10 +33381,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -33474,7 +33424,7 @@
       </c>
       <c r="Q291" s="2"/>
       <c r="R291" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="S291" t="s" s="2">
         <v>77</v>
@@ -33536,10 +33486,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -33562,13 +33512,13 @@
         <v>77</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
@@ -33639,13 +33589,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D293" t="s" s="2">
         <v>77</v>
@@ -33670,14 +33620,14 @@
         <v>93</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="P293" t="s" s="2">
         <v>77</v>
@@ -33746,10 +33696,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33849,10 +33799,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33954,10 +33904,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -33997,7 +33947,7 @@
       </c>
       <c r="Q296" s="2"/>
       <c r="R296" t="s" s="2">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="S296" t="s" s="2">
         <v>77</v>
@@ -34059,10 +34009,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -34085,13 +34035,13 @@
         <v>77</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -34162,13 +34112,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="D298" t="s" s="2">
         <v>77</v>
@@ -34193,14 +34143,14 @@
         <v>93</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" t="s" s="2">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="P298" t="s" s="2">
         <v>77</v>
@@ -34269,10 +34219,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -34372,10 +34322,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -34475,10 +34425,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C301" t="s" s="2">
         <v>100</v>
@@ -34509,11 +34459,11 @@
         <v>81</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>77</v>
@@ -34582,10 +34532,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -34685,10 +34635,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34790,10 +34740,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34833,7 +34783,7 @@
       </c>
       <c r="Q304" s="2"/>
       <c r="R304" t="s" s="2">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="S304" t="s" s="2">
         <v>77</v>
@@ -34895,10 +34845,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34927,7 +34877,7 @@
         <v>81</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -34998,10 +34948,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C306" t="s" s="2">
         <v>167</v>
@@ -35036,7 +34986,7 @@
       </c>
       <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>77</v>
@@ -35105,10 +35055,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -35208,10 +35158,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -35313,10 +35263,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -35356,7 +35306,7 @@
       </c>
       <c r="Q309" s="2"/>
       <c r="R309" t="s" s="2">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="S309" t="s" s="2">
         <v>77</v>
@@ -35418,10 +35368,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -35521,10 +35471,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C311" t="s" s="2">
         <v>178</v>
@@ -35559,7 +35509,7 @@
       </c>
       <c r="N311" s="2"/>
       <c r="O311" t="s" s="2">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="P311" t="s" s="2">
         <v>77</v>
@@ -35628,10 +35578,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -35731,10 +35681,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -35836,10 +35786,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -35879,7 +35829,7 @@
       </c>
       <c r="Q314" s="2"/>
       <c r="R314" t="s" s="2">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="S314" t="s" s="2">
         <v>77</v>
@@ -35941,10 +35891,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -36000,13 +35950,13 @@
         <v>77</v>
       </c>
       <c r="X315" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y315" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z315" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA315" t="s" s="2">
         <v>77</v>
@@ -36044,13 +35994,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D316" t="s" s="2">
         <v>77</v>
@@ -36075,16 +36025,16 @@
         <v>93</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="P316" t="s" s="2">
         <v>77</v>
@@ -36153,10 +36103,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -36256,10 +36206,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -36361,10 +36311,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -36404,7 +36354,7 @@
       </c>
       <c r="Q319" s="2"/>
       <c r="R319" t="s" s="2">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="S319" t="s" s="2">
         <v>77</v>
@@ -36466,10 +36416,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -36495,13 +36445,13 @@
         <v>187</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O320" s="2"/>
       <c r="P320" t="s" s="2">
@@ -36527,13 +36477,13 @@
         <v>77</v>
       </c>
       <c r="X320" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y320" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z320" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA320" t="s" s="2">
         <v>77</v>
@@ -36571,13 +36521,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>77</v>
@@ -36602,16 +36552,16 @@
         <v>93</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O321" t="s" s="2">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="P321" t="s" s="2">
         <v>77</v>
@@ -36680,10 +36630,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -36783,10 +36733,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -36888,10 +36838,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -36931,7 +36881,7 @@
       </c>
       <c r="Q324" s="2"/>
       <c r="R324" t="s" s="2">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="S324" t="s" s="2">
         <v>77</v>
@@ -36993,10 +36943,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -37022,13 +36972,13 @@
         <v>187</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O325" s="2"/>
       <c r="P325" t="s" s="2">
@@ -37054,13 +37004,13 @@
         <v>77</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA325" t="s" s="2">
         <v>77</v>
@@ -37098,13 +37048,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D326" t="s" s="2">
         <v>77</v>
@@ -37129,14 +37079,14 @@
         <v>93</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N326" s="2"/>
       <c r="O326" t="s" s="2">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="P326" t="s" s="2">
         <v>77</v>
@@ -37205,10 +37155,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -37308,10 +37258,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -37413,10 +37363,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -37456,7 +37406,7 @@
       </c>
       <c r="Q329" s="2"/>
       <c r="R329" t="s" s="2">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="S329" t="s" s="2">
         <v>77</v>
@@ -37518,10 +37468,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -37547,10 +37497,10 @@
         <v>187</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
@@ -37577,11 +37527,13 @@
         <v>77</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y330" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y330" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z330" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA330" t="s" s="2">
         <v>77</v>
@@ -37619,13 +37571,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D331" t="s" s="2">
         <v>77</v>
@@ -37650,16 +37602,16 @@
         <v>93</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="P331" t="s" s="2">
         <v>77</v>
@@ -37728,10 +37680,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -37831,10 +37783,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -37936,10 +37888,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -37979,7 +37931,7 @@
       </c>
       <c r="Q334" s="2"/>
       <c r="R334" t="s" s="2">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="S334" t="s" s="2">
         <v>77</v>
@@ -38041,10 +37993,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -38070,13 +38022,13 @@
         <v>187</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="O335" s="2"/>
       <c r="P335" t="s" s="2">
@@ -38102,13 +38054,13 @@
         <v>77</v>
       </c>
       <c r="X335" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA335" t="s" s="2">
         <v>77</v>
@@ -38146,13 +38098,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D336" t="s" s="2">
         <v>77</v>
@@ -38177,16 +38129,16 @@
         <v>93</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O336" t="s" s="2">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="P336" t="s" s="2">
         <v>77</v>
@@ -38255,10 +38207,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -38358,10 +38310,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -38463,10 +38415,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -38506,7 +38458,7 @@
       </c>
       <c r="Q339" s="2"/>
       <c r="R339" t="s" s="2">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="S339" t="s" s="2">
         <v>77</v>
@@ -38568,10 +38520,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -38597,13 +38549,13 @@
         <v>187</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" t="s" s="2">
@@ -38629,13 +38581,13 @@
         <v>77</v>
       </c>
       <c r="X340" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y340" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z340" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA340" t="s" s="2">
         <v>77</v>
@@ -38673,13 +38625,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D341" t="s" s="2">
         <v>77</v>
@@ -38704,14 +38656,14 @@
         <v>93</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N341" s="2"/>
       <c r="O341" t="s" s="2">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="P341" t="s" s="2">
         <v>77</v>
@@ -38780,10 +38732,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -38883,10 +38835,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -38988,10 +38940,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -39031,7 +38983,7 @@
       </c>
       <c r="Q344" s="2"/>
       <c r="R344" t="s" s="2">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="S344" t="s" s="2">
         <v>77</v>
@@ -39093,10 +39045,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -39119,13 +39071,13 @@
         <v>77</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
@@ -39196,13 +39148,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D346" t="s" s="2">
         <v>77</v>
@@ -39227,14 +39179,14 @@
         <v>93</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="P346" t="s" s="2">
         <v>77</v>
@@ -39303,10 +39255,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -39406,10 +39358,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -39511,10 +39463,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -39554,7 +39506,7 @@
       </c>
       <c r="Q349" s="2"/>
       <c r="R349" t="s" s="2">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="S349" t="s" s="2">
         <v>77</v>
@@ -39616,10 +39568,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -39642,13 +39594,13 @@
         <v>77</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
@@ -39719,13 +39671,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D351" t="s" s="2">
         <v>77</v>
@@ -39750,14 +39702,14 @@
         <v>93</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" t="s" s="2">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="P351" t="s" s="2">
         <v>77</v>
@@ -39826,10 +39778,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -39929,10 +39881,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" t="s" s="2">
@@ -40034,10 +39986,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
@@ -40077,7 +40029,7 @@
       </c>
       <c r="Q354" s="2"/>
       <c r="R354" t="s" s="2">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="S354" t="s" s="2">
         <v>77</v>
@@ -40139,10 +40091,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
@@ -40165,13 +40117,13 @@
         <v>77</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
@@ -40242,13 +40194,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D356" t="s" s="2">
         <v>77</v>
@@ -40273,16 +40225,16 @@
         <v>93</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O356" t="s" s="2">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="P356" t="s" s="2">
         <v>77</v>
@@ -40351,10 +40303,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" t="s" s="2">
@@ -40454,10 +40406,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
@@ -40559,10 +40511,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -40602,7 +40554,7 @@
       </c>
       <c r="Q359" s="2"/>
       <c r="R359" t="s" s="2">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="S359" t="s" s="2">
         <v>77</v>
@@ -40664,10 +40616,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" t="s" s="2">
@@ -40690,16 +40642,16 @@
         <v>77</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
@@ -40769,13 +40721,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D361" t="s" s="2">
         <v>77</v>
@@ -40800,14 +40752,14 @@
         <v>93</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N361" s="2"/>
       <c r="O361" t="s" s="2">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="P361" t="s" s="2">
         <v>77</v>
@@ -40876,10 +40828,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" t="s" s="2">
@@ -40979,10 +40931,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" t="s" s="2">
@@ -41084,10 +41036,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" t="s" s="2">
@@ -41127,7 +41079,7 @@
       </c>
       <c r="Q364" s="2"/>
       <c r="R364" t="s" s="2">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="S364" t="s" s="2">
         <v>77</v>
@@ -41189,10 +41141,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" t="s" s="2">
@@ -41215,13 +41167,13 @@
         <v>77</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
@@ -41292,13 +41244,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D366" t="s" s="2">
         <v>77</v>
@@ -41323,16 +41275,16 @@
         <v>93</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O366" t="s" s="2">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="P366" t="s" s="2">
         <v>77</v>
@@ -41401,10 +41353,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" t="s" s="2">
@@ -41504,10 +41456,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" t="s" s="2">
@@ -41609,10 +41561,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" t="s" s="2">
@@ -41652,7 +41604,7 @@
       </c>
       <c r="Q369" s="2"/>
       <c r="R369" t="s" s="2">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="S369" t="s" s="2">
         <v>77</v>
@@ -41714,10 +41666,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" t="s" s="2">
@@ -41740,16 +41692,16 @@
         <v>77</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O370" s="2"/>
       <c r="P370" t="s" s="2">
@@ -41819,13 +41771,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D371" t="s" s="2">
         <v>77</v>
@@ -41850,14 +41802,14 @@
         <v>93</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="P371" t="s" s="2">
         <v>77</v>
@@ -41926,10 +41878,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" t="s" s="2">
@@ -42029,10 +41981,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" t="s" s="2">
@@ -42134,10 +42086,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" t="s" s="2">
@@ -42177,7 +42129,7 @@
       </c>
       <c r="Q374" s="2"/>
       <c r="R374" t="s" s="2">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="S374" t="s" s="2">
         <v>77</v>
@@ -42239,10 +42191,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
@@ -42265,13 +42217,13 @@
         <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -42342,13 +42294,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D376" t="s" s="2">
         <v>77</v>
@@ -42373,14 +42325,14 @@
         <v>93</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N376" s="2"/>
       <c r="O376" t="s" s="2">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="P376" t="s" s="2">
         <v>77</v>
@@ -42449,10 +42401,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" t="s" s="2">
@@ -42552,10 +42504,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" t="s" s="2">
@@ -42657,10 +42609,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" t="s" s="2">
@@ -42700,7 +42652,7 @@
       </c>
       <c r="Q379" s="2"/>
       <c r="R379" t="s" s="2">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="S379" t="s" s="2">
         <v>77</v>
@@ -42762,10 +42714,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" t="s" s="2">
@@ -42791,10 +42743,10 @@
         <v>123</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="N380" s="2"/>
       <c r="O380" s="2"/>
@@ -42865,13 +42817,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D381" t="s" s="2">
         <v>77</v>
@@ -42896,14 +42848,14 @@
         <v>93</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="N381" s="2"/>
       <c r="O381" t="s" s="2">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="P381" t="s" s="2">
         <v>77</v>
@@ -42972,10 +42924,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" t="s" s="2">
@@ -43075,10 +43027,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
@@ -43180,10 +43132,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" t="s" s="2">
@@ -43223,7 +43175,7 @@
       </c>
       <c r="Q384" s="2"/>
       <c r="R384" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="S384" t="s" s="2">
         <v>77</v>
@@ -43285,10 +43237,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" t="s" s="2">
@@ -43311,13 +43263,13 @@
         <v>77</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -43388,13 +43340,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D386" t="s" s="2">
         <v>77</v>
@@ -43419,14 +43371,14 @@
         <v>93</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="N386" s="2"/>
       <c r="O386" t="s" s="2">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="P386" t="s" s="2">
         <v>77</v>
@@ -43495,10 +43447,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" t="s" s="2">
@@ -43598,10 +43550,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" t="s" s="2">
@@ -43703,10 +43655,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" t="s" s="2">
@@ -43746,7 +43698,7 @@
       </c>
       <c r="Q389" s="2"/>
       <c r="R389" t="s" s="2">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="S389" t="s" s="2">
         <v>77</v>
@@ -43808,10 +43760,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" t="s" s="2">
@@ -43834,13 +43786,13 @@
         <v>77</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
@@ -43911,10 +43863,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
@@ -43954,7 +43906,7 @@
       </c>
       <c r="Q391" s="2"/>
       <c r="R391" t="s" s="2">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="S391" t="s" s="2">
         <v>77</v>
@@ -44016,10 +43968,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" t="s" s="2">
@@ -44042,13 +43994,13 @@
         <v>77</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N392" s="2"/>
       <c r="O392" s="2"/>
@@ -44119,7 +44071,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>113</v>
@@ -44162,7 +44114,7 @@
       </c>
       <c r="Q393" s="2"/>
       <c r="R393" t="s" s="2">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="S393" t="s" s="2">
         <v>77</v>
@@ -44224,7 +44176,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>122</v>
@@ -44250,13 +44202,13 @@
         <v>77</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
@@ -44458,13 +44410,13 @@
         <v>77</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N396" s="2"/>
       <c r="O396" s="2"/>
